--- a/Code/Results/Cases/Case_3_130/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_130/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.050962108005365</v>
+        <v>4.339747122270978</v>
       </c>
       <c r="C2">
-        <v>0.787699595958486</v>
+        <v>0.3051189489374053</v>
       </c>
       <c r="D2">
-        <v>0.01628130923950977</v>
+        <v>0.01080933977811327</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.250243037147612</v>
+        <v>4.512974865459626</v>
       </c>
       <c r="G2">
-        <v>0.0008244848725930527</v>
+        <v>0.002633206879539633</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06048751562208032</v>
+        <v>0.155162212574913</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3256117060427073</v>
+        <v>0.4533808575927338</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.454242088456425</v>
+        <v>2.657753170492086</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.435995809801852</v>
+        <v>4.215118333504734</v>
       </c>
       <c r="C3">
-        <v>0.6772415761050752</v>
+        <v>0.2778826528646903</v>
       </c>
       <c r="D3">
-        <v>0.01369100736032181</v>
+        <v>0.009961498735012952</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.013948386756724</v>
+        <v>4.482044098002049</v>
       </c>
       <c r="G3">
-        <v>0.0008351473576521938</v>
+        <v>0.002639782201115738</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06132863754563189</v>
+        <v>0.1559184989454039</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2930568333012928</v>
+        <v>0.4484557097681545</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.496623147005295</v>
+        <v>2.674764486199436</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.067586261456825</v>
+        <v>4.14125960592969</v>
       </c>
       <c r="C4">
-        <v>0.6107827979149931</v>
+        <v>0.2613369118196829</v>
       </c>
       <c r="D4">
-        <v>0.01217697760280956</v>
+        <v>0.009437064542769491</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.876122432038343</v>
+        <v>4.465391231654564</v>
       </c>
       <c r="G4">
-        <v>0.0008418530494615566</v>
+        <v>0.002644030233316325</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06190358720001576</v>
+        <v>0.156418857809923</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2736282251762248</v>
+        <v>0.4456638698741386</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.524839718735137</v>
+        <v>2.685984874762099</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.919485771373047</v>
+        <v>4.111828701034426</v>
       </c>
       <c r="C5">
-        <v>0.5839917980678706</v>
+        <v>0.254638271367611</v>
       </c>
       <c r="D5">
-        <v>0.01157625846504828</v>
+        <v>0.009222315762542621</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.821607696731363</v>
+        <v>4.459190876041291</v>
       </c>
       <c r="G5">
-        <v>0.0008446281803243491</v>
+        <v>0.002645814530827655</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06215213045115142</v>
+        <v>0.1566318177609443</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2658372862196359</v>
+        <v>0.4445845032795859</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.53685865691218</v>
+        <v>2.690751636343457</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.895008699786956</v>
+        <v>4.106981936425143</v>
       </c>
       <c r="C6">
-        <v>0.5795593757823383</v>
+        <v>0.2535285962989917</v>
       </c>
       <c r="D6">
-        <v>0.01147741113932099</v>
+        <v>0.009186592248781267</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.812650446121665</v>
+        <v>4.458196628190152</v>
       </c>
       <c r="G6">
-        <v>0.0008450916264392592</v>
+        <v>0.002646114030199851</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06219424858814548</v>
+        <v>0.1566677270229704</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2645508417446507</v>
+        <v>0.4444087965739385</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.538884968153965</v>
+        <v>2.691554874700195</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.065581059588396</v>
+        <v>4.140859992810647</v>
       </c>
       <c r="C7">
-        <v>0.6104203689287999</v>
+        <v>0.2612463948972277</v>
       </c>
       <c r="D7">
-        <v>0.01216881393428437</v>
+        <v>0.009434172657545759</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.875380763882745</v>
+        <v>4.465305242477328</v>
       </c>
       <c r="G7">
-        <v>0.000841890300439929</v>
+        <v>0.002644054081312151</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06190688203811767</v>
+        <v>0.1564216931692801</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2735226603139154</v>
+        <v>0.4456490770573396</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.524999742218569</v>
+        <v>2.686048374806418</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.836838811107157</v>
+        <v>4.296220525678393</v>
       </c>
       <c r="C8">
-        <v>0.7492983054046931</v>
+        <v>0.2956905868352067</v>
       </c>
       <c r="D8">
-        <v>0.01537042541694689</v>
+        <v>0.01051776339519961</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.16715093685923</v>
+        <v>4.501823129273703</v>
       </c>
       <c r="G8">
-        <v>0.0008281299353545638</v>
+        <v>0.00263543042400642</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06076510092740861</v>
+        <v>0.155415514026835</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3142613334247528</v>
+        <v>0.4516344273277042</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.468379755993041</v>
+        <v>2.663457374899551</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.436396790115168</v>
+        <v>4.622165468348669</v>
       </c>
       <c r="C9">
-        <v>1.035073737944288</v>
+        <v>0.3646808529389887</v>
       </c>
       <c r="D9">
-        <v>0.02240823934348057</v>
+        <v>0.01261522641012292</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.805836374626011</v>
+        <v>4.592104397121801</v>
       </c>
       <c r="G9">
-        <v>0.0008022771158911539</v>
+        <v>0.002620182912156981</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0590135908329259</v>
+        <v>0.1537276559673213</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3993336628501396</v>
+        <v>0.4652184771554744</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.376355141582962</v>
+        <v>2.625336144648699</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.687589058905246</v>
+        <v>4.874850676987307</v>
       </c>
       <c r="C10">
-        <v>1.257448027500118</v>
+        <v>0.4163064428419148</v>
       </c>
       <c r="D10">
-        <v>0.02829200410482713</v>
+        <v>0.01414396595948375</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.329928777456274</v>
+        <v>4.669986841244821</v>
       </c>
       <c r="G10">
-        <v>0.000783766467792864</v>
+        <v>0.002609982285707182</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05806103568000154</v>
+        <v>0.1526610138409552</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4661795722835791</v>
+        <v>0.4763324052972422</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.322889750285952</v>
+        <v>2.601133527402794</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.279413031531362</v>
+        <v>4.992727792651976</v>
       </c>
       <c r="C11">
-        <v>1.362445002500408</v>
+        <v>0.4400089436870758</v>
       </c>
       <c r="D11">
-        <v>0.03119240747621177</v>
+        <v>0.01483774719773834</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.584090166937216</v>
+        <v>4.707964771814773</v>
       </c>
       <c r="G11">
-        <v>0.0007753957302529596</v>
+        <v>0.002605556623828309</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05771011522582725</v>
+        <v>0.152213334038251</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4978481018277989</v>
+        <v>0.4816365027267295</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.302328224163773</v>
+        <v>2.590957686691596</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.507388662010726</v>
+        <v>5.037789968536686</v>
       </c>
       <c r="C12">
-        <v>1.402870547134114</v>
+        <v>0.4490167354611572</v>
       </c>
       <c r="D12">
-        <v>0.03232996686942613</v>
+        <v>0.01510030567352771</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.682981745082799</v>
+        <v>4.722715513351773</v>
       </c>
       <c r="G12">
-        <v>0.0007722276951018707</v>
+        <v>0.002603911404922317</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05759005882094215</v>
+        <v>0.1520492010771441</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5100526755521884</v>
+        <v>0.4836808618936175</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.295152505275979</v>
+        <v>2.587225020842112</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.458107385462085</v>
+        <v>5.028066079615996</v>
       </c>
       <c r="C13">
-        <v>1.394132568010946</v>
+        <v>0.447075301805512</v>
       </c>
       <c r="D13">
-        <v>0.03208310143403992</v>
+        <v>0.01504376496867366</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.661559226736898</v>
+        <v>4.719522206139317</v>
       </c>
       <c r="G13">
-        <v>0.0007729100040213345</v>
+        <v>0.002604264370342166</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05761532724288188</v>
+        <v>0.1520843102339988</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5074142045397565</v>
+        <v>0.48323897806074</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.296669534109029</v>
+        <v>2.588023536477095</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.298087429616317</v>
+        <v>4.996426553934384</v>
       </c>
       <c r="C14">
-        <v>1.365756779624462</v>
+        <v>0.4407493704611056</v>
       </c>
       <c r="D14">
-        <v>0.03128516367366529</v>
+        <v>0.01485935083895384</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.592170592106413</v>
+        <v>4.709170906123063</v>
       </c>
       <c r="G14">
-        <v>0.0007751350923971312</v>
+        <v>0.002605420657026482</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05769997482371281</v>
+        <v>0.1521997226491791</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4988477260185675</v>
+        <v>0.481803975025997</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.301725196401932</v>
+        <v>2.590648174487242</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.200593626715317</v>
+        <v>4.977101839108627</v>
       </c>
       <c r="C15">
-        <v>1.348466153206346</v>
+        <v>0.436878769898442</v>
       </c>
       <c r="D15">
-        <v>0.03080174543955394</v>
+        <v>0.0147463731055808</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.550025055865376</v>
+        <v>4.702878617088743</v>
       </c>
       <c r="G15">
-        <v>0.0007764980804286961</v>
+        <v>0.002606132906275785</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05775352640988629</v>
+        <v>0.1522711183652419</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4936291820172869</v>
+        <v>0.4809296613042306</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.304903710733882</v>
+        <v>2.59227158333016</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.64941748898417</v>
+        <v>4.867206367503115</v>
       </c>
       <c r="C16">
-        <v>1.250672740334551</v>
+        <v>0.4147618833133606</v>
       </c>
       <c r="D16">
-        <v>0.02810753421348977</v>
+        <v>0.01409859898255661</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.313666863139503</v>
+        <v>4.667556421461057</v>
       </c>
       <c r="G16">
-        <v>0.0007843140769248886</v>
+        <v>0.002610275816568339</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05808570769215748</v>
+        <v>0.1526910257832945</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4641378694716849</v>
+        <v>0.4759907756574222</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.324314862760517</v>
+        <v>2.601815391172607</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.317492549921894</v>
+        <v>4.800541743449287</v>
       </c>
       <c r="C17">
-        <v>1.191737679955907</v>
+        <v>0.401250266902764</v>
       </c>
       <c r="D17">
-        <v>0.02651668329182399</v>
+        <v>0.01370084158028817</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.17295508682588</v>
+        <v>4.646542190097819</v>
       </c>
       <c r="G17">
-        <v>0.0007891181326696948</v>
+        <v>0.002612872205010075</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05831124669400012</v>
+        <v>0.1529582371233928</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4463893099989917</v>
+        <v>0.4730246018813773</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.337232166773816</v>
+        <v>2.60788437143286</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.128668443190975</v>
+        <v>4.762473527613167</v>
       </c>
       <c r="C18">
-        <v>1.158193216813515</v>
+        <v>0.3934991870504518</v>
       </c>
       <c r="D18">
-        <v>0.02562224789114609</v>
+        <v>0.01347190213691363</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.093477638698516</v>
+        <v>4.634695095344199</v>
       </c>
       <c r="G18">
-        <v>0.0007918863586744429</v>
+        <v>0.002614385794217561</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05844866001592486</v>
+        <v>0.1531154638254009</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4362972709148352</v>
+        <v>0.471341903205186</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.345010987039601</v>
+        <v>2.611453546490409</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.065077902369296</v>
+        <v>4.749631500347277</v>
       </c>
       <c r="C19">
-        <v>1.146893176759761</v>
+        <v>0.390878290178307</v>
       </c>
       <c r="D19">
-        <v>0.02532274749884778</v>
+        <v>0.01339435741539319</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.066807408255698</v>
+        <v>4.630724962783006</v>
       </c>
       <c r="G19">
-        <v>0.0007928246520710069</v>
+        <v>0.002614901747092363</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05849647896529575</v>
+        <v>0.1531693051667293</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4328994102849748</v>
+        <v>0.4707761803741306</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.347702782288678</v>
+        <v>2.612675459866836</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.352606091589848</v>
+        <v>4.807609767411066</v>
       </c>
       <c r="C20">
-        <v>1.197974076231844</v>
+        <v>0.4026864794616927</v>
       </c>
       <c r="D20">
-        <v>0.02668385510347804</v>
+        <v>0.01374319953868053</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.187780811493212</v>
+        <v>4.648754359067027</v>
       </c>
       <c r="G20">
-        <v>0.0007886062454038889</v>
+        <v>0.002612593724118724</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05828643524818489</v>
+        <v>0.152929426319929</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4482664105712928</v>
+        <v>0.4733379371054127</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.335820495216424</v>
+        <v>2.607230192482305</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.344978938992199</v>
+        <v>5.005708296285775</v>
       </c>
       <c r="C21">
-        <v>1.374072374201489</v>
+        <v>0.4426065698791604</v>
       </c>
       <c r="D21">
-        <v>0.03151840964986263</v>
+        <v>0.01491352150971892</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.61247654414143</v>
+        <v>4.712201287860182</v>
       </c>
       <c r="G21">
-        <v>0.0007744815290233403</v>
+        <v>0.002605080196458224</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05767475500593022</v>
+        <v>0.1521656768789938</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5013578703036785</v>
+        <v>0.4822244973931475</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.300223042305248</v>
+        <v>2.589873972611599</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.016437340501284</v>
+        <v>5.137654105490697</v>
       </c>
       <c r="C22">
-        <v>1.493109179248336</v>
+        <v>0.4688845719797428</v>
       </c>
       <c r="D22">
-        <v>0.03491107093761769</v>
+        <v>0.01567748960534487</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.905689135762941</v>
+        <v>4.755821568043757</v>
       </c>
       <c r="G22">
-        <v>0.0007652574235929684</v>
+        <v>0.002600348429041555</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05735033962333702</v>
+        <v>0.1516979588872793</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5373125264372476</v>
+        <v>0.4882411742654824</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.280557872790155</v>
+        <v>2.579234602006068</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.655745231430501</v>
+        <v>5.067004340597236</v>
       </c>
       <c r="C23">
-        <v>1.429173095478632</v>
+        <v>0.4548420264180777</v>
       </c>
       <c r="D23">
-        <v>0.03307633550768685</v>
+        <v>0.01526980293537861</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.747620854116292</v>
+        <v>4.73234256555034</v>
       </c>
       <c r="G23">
-        <v>0.0007701818606626887</v>
+        <v>0.00260285756663757</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05751622558203451</v>
+        <v>0.1519447138275503</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5179962067568482</v>
+        <v>0.4850108195236515</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.290697874729091</v>
+        <v>2.584848367970238</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.33672506206392</v>
+        <v>4.804413509911228</v>
       </c>
       <c r="C24">
-        <v>1.195153556717912</v>
+        <v>0.4020371151000859</v>
       </c>
       <c r="D24">
-        <v>0.02660821442918859</v>
+        <v>0.01372405033163204</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.181073707540435</v>
+        <v>4.647753507998772</v>
       </c>
       <c r="G24">
-        <v>0.0007888376496067327</v>
+        <v>0.002612719560271</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05829762844155084</v>
+        <v>0.1529424404599169</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4474174273203317</v>
+        <v>0.4731962078825944</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.336457619132446</v>
+        <v>2.607525697544986</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.992171802627979</v>
+        <v>4.531685867951182</v>
       </c>
       <c r="C25">
-        <v>0.9559250400950248</v>
+        <v>0.3458565563292382</v>
       </c>
       <c r="D25">
-        <v>0.02039953460375798</v>
+        <v>0.01205028749491177</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.62457510075609</v>
+        <v>4.565664692492135</v>
       </c>
       <c r="G25">
-        <v>0.0008091695516990538</v>
+        <v>0.002624130964374844</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05943169464309861</v>
+        <v>0.1541537774416106</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3756517931805377</v>
+        <v>0.4613451254826231</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.398973222278642</v>
+        <v>2.634983513626025</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_130/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_130/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.339747122270978</v>
+        <v>5.050962108005535</v>
       </c>
       <c r="C2">
-        <v>0.3051189489374053</v>
+        <v>0.787699595958486</v>
       </c>
       <c r="D2">
-        <v>0.01080933977811327</v>
+        <v>0.01628130923949556</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.512974865459626</v>
+        <v>3.250243037147612</v>
       </c>
       <c r="G2">
-        <v>0.002633206879539633</v>
+        <v>0.000824484872711436</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.155162212574913</v>
+        <v>0.06048751562204835</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4533808575927338</v>
+        <v>0.3256117060427215</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.657753170492086</v>
+        <v>1.454242088456454</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.215118333504734</v>
+        <v>4.435995809801625</v>
       </c>
       <c r="C3">
-        <v>0.2778826528646903</v>
+        <v>0.6772415761046773</v>
       </c>
       <c r="D3">
-        <v>0.009961498735012952</v>
+        <v>0.01369100736043904</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.482044098002049</v>
+        <v>3.013948386756724</v>
       </c>
       <c r="G3">
-        <v>0.002639782201115738</v>
+        <v>0.00083514735777117</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1559184989454039</v>
+        <v>0.0613286375457065</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4484557097681545</v>
+        <v>0.2930568333012928</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.674764486199436</v>
+        <v>1.496623147005309</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.14125960592969</v>
+        <v>4.067586261456711</v>
       </c>
       <c r="C4">
-        <v>0.2613369118196829</v>
+        <v>0.6107827979147089</v>
       </c>
       <c r="D4">
-        <v>0.009437064542769491</v>
+        <v>0.01217697760290903</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.465391231654564</v>
+        <v>2.876122432038287</v>
       </c>
       <c r="G4">
-        <v>0.002644030233316325</v>
+        <v>0.0008418530493432544</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.156418857809923</v>
+        <v>0.06190358719998201</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4456638698741386</v>
+        <v>0.2736282251763242</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.685984874762099</v>
+        <v>1.52483971873508</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.111828701034426</v>
+        <v>3.91948577137299</v>
       </c>
       <c r="C5">
-        <v>0.254638271367611</v>
+        <v>0.5839917980676432</v>
       </c>
       <c r="D5">
-        <v>0.009222315762542621</v>
+        <v>0.01157625846528987</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.459190876041291</v>
+        <v>2.821607696731334</v>
       </c>
       <c r="G5">
-        <v>0.002645814530827655</v>
+        <v>0.0008446281803831113</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1566318177609443</v>
+        <v>0.06215213045118162</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4445845032795859</v>
+        <v>0.2658372862197069</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.690751636343457</v>
+        <v>1.536858656912194</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.106981936425143</v>
+        <v>3.895008699787013</v>
       </c>
       <c r="C6">
-        <v>0.2535285962989917</v>
+        <v>0.5795593757823667</v>
       </c>
       <c r="D6">
-        <v>0.009186592248781267</v>
+        <v>0.01147741113910428</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.458196628190152</v>
+        <v>2.812650446121623</v>
       </c>
       <c r="G6">
-        <v>0.002646114030199851</v>
+        <v>0.0008450916264432914</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1566677270229704</v>
+        <v>0.06219424858814371</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4444087965739385</v>
+        <v>0.2645508417445797</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.691554874700195</v>
+        <v>1.53888496815398</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.140859992810647</v>
+        <v>4.065581059588226</v>
       </c>
       <c r="C7">
-        <v>0.2612463948972277</v>
+        <v>0.6104203689285441</v>
       </c>
       <c r="D7">
-        <v>0.009434172657545759</v>
+        <v>0.01216881393430214</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.465305242477328</v>
+        <v>2.87538076388276</v>
       </c>
       <c r="G7">
-        <v>0.002644054081312151</v>
+        <v>0.0008418903004427333</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1564216931692801</v>
+        <v>0.06190688203815142</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4456490770573396</v>
+        <v>0.2735226603138443</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.686048374806418</v>
+        <v>1.524999742218512</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.296220525678393</v>
+        <v>4.836838811107384</v>
       </c>
       <c r="C8">
-        <v>0.2956905868352067</v>
+        <v>0.7492983054049489</v>
       </c>
       <c r="D8">
-        <v>0.01051776339519961</v>
+        <v>0.01537042541682254</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.501823129273703</v>
+        <v>3.167150936859258</v>
       </c>
       <c r="G8">
-        <v>0.00263543042400642</v>
+        <v>0.0008281299353543444</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.155415514026835</v>
+        <v>0.06076510092734289</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4516344273277042</v>
+        <v>0.3142613334247386</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.663457374899551</v>
+        <v>1.468379755993041</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.622165468348669</v>
+        <v>6.436396790115339</v>
       </c>
       <c r="C9">
-        <v>0.3646808529389887</v>
+        <v>1.03507373794406</v>
       </c>
       <c r="D9">
-        <v>0.01261522641012292</v>
+        <v>0.02240823934382874</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.592104397121801</v>
+        <v>3.80583637462604</v>
       </c>
       <c r="G9">
-        <v>0.002620182912156981</v>
+        <v>0.0008022771158874649</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1537276559673213</v>
+        <v>0.05901359083293656</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4652184771554744</v>
+        <v>0.3993336628500828</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.625336144648699</v>
+        <v>1.376355141582948</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.874850676987307</v>
+        <v>7.687589058905246</v>
       </c>
       <c r="C10">
-        <v>0.4163064428419148</v>
+        <v>1.257448027500118</v>
       </c>
       <c r="D10">
-        <v>0.01414396595948375</v>
+        <v>0.02829200410419475</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.669986841244821</v>
+        <v>4.329928777456246</v>
       </c>
       <c r="G10">
-        <v>0.002609982285707182</v>
+        <v>0.0007837664677683714</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1526610138409552</v>
+        <v>0.05806103568007259</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4763324052972422</v>
+        <v>0.466179572283437</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.601133527402794</v>
+        <v>1.322889750285995</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.992727792651976</v>
+        <v>8.279413031531476</v>
       </c>
       <c r="C11">
-        <v>0.4400089436870758</v>
+        <v>1.36244500250092</v>
       </c>
       <c r="D11">
-        <v>0.01483774719773834</v>
+        <v>0.03119240747663099</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.707964771814773</v>
+        <v>4.584090166937216</v>
       </c>
       <c r="G11">
-        <v>0.002605556623828309</v>
+        <v>0.0007753957302601469</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.152213334038251</v>
+        <v>0.05771011522563185</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4816365027267295</v>
+        <v>0.4978481018277421</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.590957686691596</v>
+        <v>1.302328224163702</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.037789968536686</v>
+        <v>8.507388662010612</v>
       </c>
       <c r="C12">
-        <v>0.4490167354611572</v>
+        <v>1.402870547134114</v>
       </c>
       <c r="D12">
-        <v>0.01510030567352771</v>
+        <v>0.03232996686942613</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.722715513351773</v>
+        <v>4.682981745082799</v>
       </c>
       <c r="G12">
-        <v>0.002603911404922317</v>
+        <v>0.0007722276950779425</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1520492010771441</v>
+        <v>0.05759005882100254</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4836808618936175</v>
+        <v>0.5100526755521599</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.587225020842112</v>
+        <v>1.295152505275922</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.028066079615996</v>
+        <v>8.458107385461972</v>
       </c>
       <c r="C13">
-        <v>0.447075301805512</v>
+        <v>1.394132568010832</v>
       </c>
       <c r="D13">
-        <v>0.01504376496867366</v>
+        <v>0.0320831014342815</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.719522206139317</v>
+        <v>4.661559226736927</v>
       </c>
       <c r="G13">
-        <v>0.002604264370342166</v>
+        <v>0.000772910004215749</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1520843102339988</v>
+        <v>0.05761532724284635</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.48323897806074</v>
+        <v>0.5074142045397139</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.588023536477095</v>
+        <v>1.296669534109071</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.996426553934384</v>
+        <v>8.298087429616544</v>
       </c>
       <c r="C14">
-        <v>0.4407493704611056</v>
+        <v>1.365756779624746</v>
       </c>
       <c r="D14">
-        <v>0.01485935083895384</v>
+        <v>0.03128516367379319</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.709170906123063</v>
+        <v>4.592170592106413</v>
       </c>
       <c r="G14">
-        <v>0.002605420657026482</v>
+        <v>0.0007751350924500091</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1521997226491791</v>
+        <v>0.05769997482355294</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.481803975025997</v>
+        <v>0.4988477260185249</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.590648174487242</v>
+        <v>1.301725196401932</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.977101839108627</v>
+        <v>8.20059362671509</v>
       </c>
       <c r="C15">
-        <v>0.436878769898442</v>
+        <v>1.348466153206459</v>
       </c>
       <c r="D15">
-        <v>0.0147463731055808</v>
+        <v>0.03080174543934788</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.702878617088743</v>
+        <v>4.550025055865376</v>
       </c>
       <c r="G15">
-        <v>0.002606132906275785</v>
+        <v>0.0007764980803571833</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1522711183652419</v>
+        <v>0.05775352640999287</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4809296613042306</v>
+        <v>0.4936291820172158</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.59227158333016</v>
+        <v>1.304903710733996</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.867206367503115</v>
+        <v>7.649417488984227</v>
       </c>
       <c r="C16">
-        <v>0.4147618833133606</v>
+        <v>1.250672740334551</v>
       </c>
       <c r="D16">
-        <v>0.01409859898255661</v>
+        <v>0.02810753421384504</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.667556421461057</v>
+        <v>4.313666863139559</v>
       </c>
       <c r="G16">
-        <v>0.002610275816568339</v>
+        <v>0.0007843140769398428</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1526910257832945</v>
+        <v>0.05808570769231025</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4759907756574222</v>
+        <v>0.4641378694715996</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.601815391172607</v>
+        <v>1.32431486276046</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.800541743449287</v>
+        <v>7.317492549921781</v>
       </c>
       <c r="C17">
-        <v>0.401250266902764</v>
+        <v>1.191737679955907</v>
       </c>
       <c r="D17">
-        <v>0.01370084158028817</v>
+        <v>0.02651668329205137</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.646542190097819</v>
+        <v>4.172955086825908</v>
       </c>
       <c r="G17">
-        <v>0.002612872205010075</v>
+        <v>0.0007891181326699885</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1529582371233928</v>
+        <v>0.05831124669387933</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4730246018813773</v>
+        <v>0.4463893099989065</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.60788437143286</v>
+        <v>1.33723216677383</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.762473527613167</v>
+        <v>7.128668443191373</v>
       </c>
       <c r="C18">
-        <v>0.3934991870504518</v>
+        <v>1.158193216813345</v>
       </c>
       <c r="D18">
-        <v>0.01347190213691363</v>
+        <v>0.02562224789127754</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.634695095344199</v>
+        <v>4.093477638698488</v>
       </c>
       <c r="G18">
-        <v>0.002614385794217561</v>
+        <v>0.0007918863586714873</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1531154638254009</v>
+        <v>0.05844866001590532</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.471341903205186</v>
+        <v>0.4362972709149204</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.611453546490409</v>
+        <v>1.345010987039544</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.749631500347277</v>
+        <v>7.065077902369239</v>
       </c>
       <c r="C19">
-        <v>0.390878290178307</v>
+        <v>1.146893176759534</v>
       </c>
       <c r="D19">
-        <v>0.01339435741539319</v>
+        <v>0.02532274749892238</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.630724962783006</v>
+        <v>4.066807408255727</v>
       </c>
       <c r="G19">
-        <v>0.002614901747092363</v>
+        <v>0.0007928246520126092</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1531693051667293</v>
+        <v>0.05849647896528865</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4707761803741306</v>
+        <v>0.432899410284989</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.612675459866836</v>
+        <v>1.347702782288607</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.807609767411066</v>
+        <v>7.352606091590076</v>
       </c>
       <c r="C20">
-        <v>0.4026864794616927</v>
+        <v>1.197974076231731</v>
       </c>
       <c r="D20">
-        <v>0.01374319953868053</v>
+        <v>0.0266838551032933</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.648754359067027</v>
+        <v>4.187780811493184</v>
       </c>
       <c r="G20">
-        <v>0.002612593724118724</v>
+        <v>0.0007886062453995382</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.152929426319929</v>
+        <v>0.0582864352482062</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4733379371054127</v>
+        <v>0.4482664105712217</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.607230192482305</v>
+        <v>1.335820495216396</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.005708296285775</v>
+        <v>8.344978938991972</v>
       </c>
       <c r="C21">
-        <v>0.4426065698791604</v>
+        <v>1.374072374201091</v>
       </c>
       <c r="D21">
-        <v>0.01491352150971892</v>
+        <v>0.03151840964984842</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.712201287860182</v>
+        <v>4.61247654414143</v>
       </c>
       <c r="G21">
-        <v>0.002605080196458224</v>
+        <v>0.0007744815290209479</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1521656768789938</v>
+        <v>0.05767475500597996</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4822244973931475</v>
+        <v>0.5013578703038206</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.589873972611599</v>
+        <v>1.300223042305277</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.137654105490697</v>
+        <v>9.01643734050117</v>
       </c>
       <c r="C22">
-        <v>0.4688845719797428</v>
+        <v>1.493109179247483</v>
       </c>
       <c r="D22">
-        <v>0.01567748960534487</v>
+        <v>0.03491107093724821</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.755821568043757</v>
+        <v>4.905689135762913</v>
       </c>
       <c r="G22">
-        <v>0.002600348429041555</v>
+        <v>0.000765257423595083</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1516979588872793</v>
+        <v>0.05735033962329084</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4882411742654824</v>
+        <v>0.5373125264373755</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.579234602006068</v>
+        <v>1.280557872790155</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.067004340597236</v>
+        <v>8.655745231430274</v>
       </c>
       <c r="C23">
-        <v>0.4548420264180777</v>
+        <v>1.429173095478518</v>
       </c>
       <c r="D23">
-        <v>0.01526980293537861</v>
+        <v>0.03307633550785027</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.73234256555034</v>
+        <v>4.74762085411632</v>
       </c>
       <c r="G23">
-        <v>0.00260285756663757</v>
+        <v>0.0007701818607415081</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1519447138275503</v>
+        <v>0.05751622558196701</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4850108195236515</v>
+        <v>0.5179962067566635</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.584848367970238</v>
+        <v>1.290697874729105</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.804413509911228</v>
+        <v>7.336725062063977</v>
       </c>
       <c r="C24">
-        <v>0.4020371151000859</v>
+        <v>1.195153556717912</v>
       </c>
       <c r="D24">
-        <v>0.01372405033163204</v>
+        <v>0.02660821442911043</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.647753507998772</v>
+        <v>4.181073707540463</v>
       </c>
       <c r="G24">
-        <v>0.002612719560271</v>
+        <v>0.0007888376495501082</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1529424404599169</v>
+        <v>0.05829762844163255</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4731962078825944</v>
+        <v>0.4474174273201754</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.607525697544986</v>
+        <v>1.336457619132403</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.531685867951182</v>
+        <v>5.992171802628263</v>
       </c>
       <c r="C25">
-        <v>0.3458565563292382</v>
+        <v>0.9559250400949963</v>
       </c>
       <c r="D25">
-        <v>0.01205028749491177</v>
+        <v>0.02039953460396049</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.565664692492135</v>
+        <v>3.624575100756147</v>
       </c>
       <c r="G25">
-        <v>0.002624130964374844</v>
+        <v>0.0008091695516290678</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1541537774416106</v>
+        <v>0.05943169464320164</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4613451254826231</v>
+        <v>0.3756517931805092</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.634983513626025</v>
+        <v>1.398973222278684</v>
       </c>
       <c r="O25">
         <v>0</v>
